--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_218.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_218.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04956195244055069</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09521739130434782</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
+          <t>[['Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.32, 40.68)]</t>
+          <t>[['E', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.66, 34.89)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:43.350000', '0:01:46.640000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.866546', '0:00:11.872804')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08792372881355932</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C', 'D', 'G'], ['F', 'C', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
+          <t>[['F', 'G', 'C'], ['Bb', 'F', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.439841)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:17.014988', '0:00:20.892721'), ('0:00:16.062970', '0:00:19.940702')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:25.687641', '0:00:32.084739'), ('0:00:10.884920', '0:00:15.064512')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2152173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09125874125874125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1138310893512852</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.616991, 31.687468)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.96, 14.54)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:36.752312', '0:01:39.387777'), ('0:00:24.387324', '0:00:27.452358')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.675</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:00:00.421247', '0:00:20.904331')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06681818181818182</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (9.91, 14.0)]</t>
+          <t>[('0:01:05.780000', '0:01:14.480000'), ('0:01:05.280000', '0:01:11')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:09.240000', '0:00:16.180000'), ('0:00:21.780000', '0:00:25.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05713058419243986</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2392857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.426857, 3.509464)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(30.424512, 35.962471)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:04:03.440000', '0:04:06.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1536231884057971</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F', 'F']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.334625, 18.779705)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(54.681315, 62.15814)]</t>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06853146853146853</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min/G#', 'A#:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.536, 33.834)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(93.84, 105.4)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.38, 7.84)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2316176470588235</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07570690179385832</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7758620689655172</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.44, 24.06)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.336219', '0:00:56.966621')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.98, 20.7), (10.56, 23.76)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.24, 5.98), (1.0, 7.82)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1528471528471528</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['C:7', 'F', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['E:7', 'A:maj', 'E:7']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7), (24.12, 27.0)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (20.34, 22.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(76.585782, 78.06481)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
